--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:26:05+00:00</t>
+    <t>2023-01-30T20:52:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T20:52:57+00:00</t>
+    <t>2023-02-02T13:13:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:13:30+00:00</t>
+    <t>2023-02-02T17:32:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -751,7 +751,7 @@
     <t>Part of the name that is acquired as a title due to academic, legal, employment or nobility status, etc. and that appears at the end of the name.</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/StructureDefinition</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J207-Civilite-ROR/FHIR/JDV-J207-Civilite-ROR</t>
   </si>
   <si>
     <t>HumanName.suffix</t>
@@ -828,10 +828,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>Practitioner.telecom.extension:usage</t>
-  </si>
-  <si>
-    <t>usage</t>
+    <t>Practitioner.telecom.extension:ror-telecom-usage</t>
+  </si>
+  <si>
+    <t>ror-telecom-usage</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
@@ -1552,7 +1552,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.06640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.265625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4666,7 +4666,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4780,7 +4780,7 @@
         <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T17:32:40+00:00</t>
+    <t>2023-02-03T18:03:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-practitioner</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T18:03:32+00:00</t>
+    <t>2023-02-09T17:07:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,7 +834,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>ror-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>ror-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-communication-channel}
+    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
@@ -1537,7 +1537,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="110.02734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.27734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:07:44+00:00</t>
+    <t>2023-02-09T17:20:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T17:20:33+00:00</t>
+    <t>2023-02-13T11:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-13T11:08:40+00:00</t>
+    <t>2023-02-15T14:28:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-practitioner</t>
+    <t>http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-practitioner</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-15T14:28:48+00:00</t>
+    <t>2023-02-17T09:09:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -834,7 +834,7 @@
     <t>ror-telecom-usage</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-telecom-usage}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-telecom-usage}
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
     <t>ror-confidentiality-level</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-confidentiality-level}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-confidentiality-level}
 </t>
   </si>
   <si>
@@ -857,7 +857,7 @@
     <t>ror-communication-channel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-communication-channel}
+    <t xml:space="preserve">Extension {http://interop.esante.gouv.fr/fhir/ig/ror24/StructureDefinition/ror-communication-channel}
 </t>
   </si>
   <si>
@@ -1537,7 +1537,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.27734375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4666,7 +4666,7 @@
         <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4780,7 +4780,7 @@
         <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>84</v>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:09:31+00:00</t>
+    <t>2023-02-17T09:40:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil créée dans le cadre du ROR</t>
+    <t>Profil créé à partir de la ressource Practitioner dans le cadre du ROR</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
+++ b/ig/FSHTransformation2.4/StructureDefinition-ror-practitioner.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T09:40:52+00:00</t>
+    <t>2023-02-17T11:17:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
